--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2872115.471635787</v>
+        <v>2871388.872764563</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330301</v>
+        <v>5851605.615330299</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124476</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6610685.504694808</v>
+        <v>6610685.504694809</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.441771996885839</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.19189402605195</v>
       </c>
     </row>
     <row r="3">
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33883039991106</v>
+        <v>91.42297362471137</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>70.90884974000116</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>175.3802083791258</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>34.29108779244417</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>127.6661866007569</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,7 +1378,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1390,7 +1390,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263995</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>106.5529234185429</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65330832841629</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
@@ -1596,7 +1596,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>75.6060398499184</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>76.26286435045623</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
@@ -1855,7 +1855,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
         <v>375.1420595397581</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>96.30873100144034</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
         <v>190.4854774862718</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114341</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>88.0431457716974</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2304,7 +2304,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722221</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>67.2064166806276</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131475</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995123</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G26" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2620,7 +2620,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
         <v>367.4283645950528</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>95.68642631902038</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>166.5396278387359</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019353</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U29" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.5623669728852</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3046,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3094,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>33.12209635668191</v>
+        <v>2.359502061318297</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3243,16 +3243,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>61.04510745646679</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>80.11717330073898</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501629</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3520,10 +3520,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722223</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3568,7 +3568,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y38" t="n">
         <v>367.4283645950528</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3717,16 +3717,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>216.6854325105169</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>18.54218513933609</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>174.1372571702753</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>149.3339408773903</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010462</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>85.4882450560975</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>31.9901801406256</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.27530644466593</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0439654718656</v>
+        <v>1688.813414910151</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9597788255397</v>
+        <v>1278.688824223421</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5362529590043</v>
+        <v>874.2248943164814</v>
       </c>
       <c r="E2" t="n">
-        <v>546.236441516305</v>
+        <v>459.8846788333781</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>38.85426678706568</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032288</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K2" t="n">
-        <v>78.17457653903023</v>
+        <v>456.9754223840384</v>
       </c>
       <c r="L2" t="n">
-        <v>78.17457653903023</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="M2" t="n">
-        <v>78.17457653903023</v>
+        <v>1302.593493711511</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9836122027664</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="O2" t="n">
-        <v>923.7926478665025</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.601683530239</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.762690325531</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.863000664706</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="V2" t="n">
-        <v>1357.025446001187</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="W2" t="n">
-        <v>973.265145136355</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="X2" t="n">
-        <v>973.265145136355</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>1694.994190534236</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>712.9972286068364</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>579.0021573557821</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="E3" t="n">
         <v>341.6121835675024</v>
@@ -4403,49 +4403,49 @@
         <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006175</v>
+        <v>54.91497810006176</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K3" t="n">
-        <v>456.9754223840381</v>
+        <v>456.9754223840384</v>
       </c>
       <c r="L3" t="n">
-        <v>512.85680000364</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="M3" t="n">
-        <v>935.6658356673762</v>
+        <v>1302.593493711511</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6658356673762</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331112</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331112</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015096</v>
+        <v>1678.759816652467</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015096</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129404</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316413</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U3" t="n">
-        <v>1402.261371003371</v>
+        <v>1615.972898010338</v>
       </c>
       <c r="V3" t="n">
-        <v>1402.261371003371</v>
+        <v>1402.261371003372</v>
       </c>
       <c r="W3" t="n">
         <v>1189.0282027397</v>
@@ -4454,7 +4454,7 @@
         <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>853.3002612424231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.9408836834104</v>
+        <v>364.7544038356754</v>
       </c>
       <c r="C4" t="n">
-        <v>580.9408836834104</v>
+        <v>193.6610313973919</v>
       </c>
       <c r="D4" t="n">
-        <v>509.3157829359345</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="E4" t="n">
-        <v>348.404967804254</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7738419148453</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7738419148453</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030192</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551244</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4515,25 +4515,25 @@
         <v>1563.565283341152</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.173515221062</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="T4" t="n">
-        <v>1137.624776197764</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="U4" t="n">
-        <v>854.8266287438885</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="V4" t="n">
-        <v>580.9408836834104</v>
+        <v>1294.603335472397</v>
       </c>
       <c r="W4" t="n">
-        <v>580.9408836834104</v>
+        <v>1015.533670981272</v>
       </c>
       <c r="X4" t="n">
-        <v>580.9408836834104</v>
+        <v>777.1898088409552</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.9408836834104</v>
+        <v>552.4541102297198</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>1055.183219931424</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>645.0586292446943</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>240.5946993377548</v>
       </c>
       <c r="E5" t="n">
         <v>63.44297370227418</v>
@@ -4570,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O5" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>1465.404399595914</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>1465.404399595914</v>
       </c>
     </row>
     <row r="6">
@@ -4625,43 +4625,43 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>675.1644281008383</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
         <v>1708.850297433489</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>342.3560491364295</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>1603.280207151329</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>1959.298537438934</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1959.298537438934</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1959.298537438934</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
@@ -5083,10 +5083,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.5419440130794</v>
+        <v>842.8852678519697</v>
       </c>
       <c r="C13" t="n">
-        <v>434.4375921661942</v>
+        <v>701.588806248371</v>
       </c>
       <c r="D13" t="n">
-        <v>434.4375921661942</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="E13" t="n">
-        <v>434.4375921661942</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114704</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V13" t="n">
-        <v>937.361648975152</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187111</v>
+        <v>1354.000222508438</v>
       </c>
       <c r="X13" t="n">
-        <v>479.5419440130794</v>
+        <v>1145.453271202806</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.5419440130794</v>
+        <v>950.5144834262555</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5308,22 +5308,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
         <v>1198.623017005979</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336102</v>
+        <v>801.524090260294</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336102</v>
+        <v>660.2276286566953</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336102</v>
+        <v>660.2276286566953</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336102</v>
+        <v>529.1137243596996</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114704</v>
+        <v>394.2795093049757</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>256.826029065204</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200945</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="V16" t="n">
-        <v>937.361648975152</v>
+        <v>1612.185378558277</v>
       </c>
       <c r="W16" t="n">
-        <v>937.361648975152</v>
+        <v>1362.912624901836</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695202</v>
+        <v>1154.365673596204</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929697</v>
+        <v>959.4268858196535</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537198</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537198</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.5419440130794</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
         <v>430.910136076462</v>
@@ -5752,19 +5752,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
         <v>3771.310534127131</v>
@@ -5788,7 +5788,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176683</v>
@@ -5797,7 +5797,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
         <v>1760.328909494509</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912171</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="H22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187111</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421606</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6022,19 +6022,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552105</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516118</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516118</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516118</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516118</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H25" t="n">
         <v>179.7928327516118</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911205</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.99208991457</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.654063591217</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="C28" t="n">
-        <v>224.3576019876184</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="D28" t="n">
-        <v>224.3576019876184</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
         <v>1761.542230672484</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.20354800875</v>
+        <v>1759.621256906271</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820137</v>
+        <v>1549.869428717658</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200946</v>
+        <v>1296.868192098467</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751525</v>
+        <v>1052.779357872674</v>
       </c>
       <c r="W28" t="n">
-        <v>769.1398026733991</v>
+        <v>803.5066042162333</v>
       </c>
       <c r="X28" t="n">
-        <v>560.5928513677674</v>
+        <v>594.9596529106016</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.654063591217</v>
+        <v>594.9596529106016</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,19 +6490,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X29" t="n">
         <v>3092.177045180321</v>
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365297</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C31" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D31" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E31" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F31" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820137</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200946</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751525</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187118</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130801</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365297</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133289</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281244</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G32" t="n">
         <v>430.9101360764616</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T32" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176681</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.7003606771702</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130801</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365297</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560572</v>
@@ -6931,10 +6931,10 @@
         <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
@@ -6949,22 +6949,22 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
         <v>4364.291146941468</v>
@@ -6973,10 +6973,10 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
         <v>3092.17704518032</v>
@@ -7007,37 +7007,37 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.24369769062278</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365297</v>
+        <v>833.5422597107666</v>
       </c>
       <c r="C37" t="n">
-        <v>284.6031562365297</v>
+        <v>692.245798107168</v>
       </c>
       <c r="D37" t="n">
-        <v>154.9054223941246</v>
+        <v>562.5480642647628</v>
       </c>
       <c r="E37" t="n">
-        <v>93.24369769062278</v>
+        <v>431.4341599677672</v>
       </c>
       <c r="F37" t="n">
-        <v>93.24369769062278</v>
+        <v>431.4341599677672</v>
       </c>
       <c r="G37" t="n">
-        <v>93.24369769062278</v>
+        <v>293.9806797279954</v>
       </c>
       <c r="H37" t="n">
-        <v>93.24369769062278</v>
+        <v>174.1701353681369</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7122,25 +7122,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820137</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200946</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V37" t="n">
-        <v>937.3616489751525</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187118</v>
+        <v>1394.930794352309</v>
       </c>
       <c r="X37" t="n">
-        <v>479.5419440130801</v>
+        <v>1186.383843046677</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365297</v>
+        <v>991.4450552701262</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.3743743489453</v>
+        <v>371.9936395339932</v>
       </c>
       <c r="C40" t="n">
-        <v>228.0779127453466</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0779127453466</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="E40" t="n">
-        <v>228.0779127453466</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7332,22 +7332,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1215.577545567089</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>971.4887113412959</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W40" t="n">
-        <v>722.2159576848552</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X40" t="n">
-        <v>722.2159576848552</v>
+        <v>724.8352228699033</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.2771699083048</v>
+        <v>529.8964350933528</v>
       </c>
     </row>
     <row r="41">
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,19 +7438,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961326</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220835</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557316</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692484</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
         <v>3360.349242692484</v>
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
         <v>1760.328909494509</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1471.800229788857</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1189.002082334981</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976084</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
         <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>899.2322418529993</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>490.5039577458315</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>179.5954603735496</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051881</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051881</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388362</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523531</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>524.2254458227151</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1556.707941337063</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1556.707941337063</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>1273.909793883187</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>1000.024048822709</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>720.9543843315835</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>133.5891066618316</v>
+        <v>516.2162236769913</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.565232066619</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608197</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603933</v>
+        <v>502.7363738915542</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295571</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846581</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883893</v>
+        <v>482.9056167883896</v>
       </c>
       <c r="L3" t="n">
-        <v>112.560359790245</v>
+        <v>483.1943578146232</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421913</v>
+        <v>484.6441177421916</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>79.78112900685309</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037739</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>498.2302468367832</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
@@ -8470,13 +8470,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>296.9001458002834</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8540,22 +8540,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8789,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -9008,13 +9008,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9184,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9251,7 +9251,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9260,13 +9260,13 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9658,7 +9658,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,7 +10445,7 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10597,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521913</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>189.6570480412973</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>488.5284925170755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>49.77084418522301</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23018865914636</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>57.87983305425826</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>42.34957456580369</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254075</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.75961948232833</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
@@ -23910,7 +23910,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233186</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
@@ -24144,10 +24144,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>30.56929314456252</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>179.5736094392488</v>
       </c>
       <c r="X25" t="n">
-        <v>192.4450443412607</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>59.34248239353046</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>80.24039828114041</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>86.51657846448876</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162598</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037904</v>
+        <v>52.56154735369884</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.7614006308807</v>
+        <v>137.5239949262444</v>
       </c>
       <c r="D34" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.75765779755888</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037904</v>
+        <v>5.566470409640118</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037904</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.78579174248213</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925754</v>
+        <v>187.9192966532394</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233442</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>87.81931075567465</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>187.9942390719841</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>119.2525439942229</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>578754.4309300029</v>
+        <v>578754.4309300028</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>537074.0970907464</v>
+        <v>537074.0970907466</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>537074.0970907466</v>
+        <v>537074.0970907467</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233366</v>
+        <v>618953.0935233363</v>
       </c>
       <c r="C2" t="n">
-        <v>618953.0935233362</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233367</v>
+        <v>618953.0935233365</v>
       </c>
       <c r="E2" t="n">
         <v>599827.8647507951</v>
       </c>
       <c r="F2" t="n">
+        <v>599827.8647507951</v>
+      </c>
+      <c r="G2" t="n">
+        <v>599827.8647507952</v>
+      </c>
+      <c r="H2" t="n">
         <v>599827.8647507949</v>
       </c>
-      <c r="G2" t="n">
-        <v>599827.8647507951</v>
-      </c>
-      <c r="H2" t="n">
-        <v>599827.8647507952</v>
-      </c>
       <c r="I2" t="n">
-        <v>599827.8647507948</v>
+        <v>599827.8647507949</v>
       </c>
       <c r="J2" t="n">
         <v>599827.8647507951</v>
       </c>
       <c r="K2" t="n">
+        <v>599827.8647507951</v>
+      </c>
+      <c r="L2" t="n">
         <v>599827.8647507949</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>599827.8647507947</v>
       </c>
-      <c r="M2" t="n">
-        <v>599827.8647507949</v>
-      </c>
       <c r="N2" t="n">
-        <v>599827.8647507947</v>
+        <v>599827.8647507948</v>
       </c>
       <c r="O2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166784</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166782</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668807</v>
+        <v>30686.46086668798</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691538</v>
+        <v>135342.0294691539</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110946</v>
+        <v>24445.77426110933</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006826</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,25 +26441,25 @@
         <v>104184.3863816102</v>
       </c>
       <c r="J4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="K4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="L4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="M4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="N4" t="n">
-        <v>104184.3863816103</v>
+        <v>104184.3863816102</v>
       </c>
       <c r="O4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>74374.35696474131</v>
+        <v>74374.35696474135</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742945</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26493,19 +26493,19 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192968.5530742269</v>
+        <v>192968.5530742266</v>
       </c>
       <c r="C6" t="n">
-        <v>319494.8838104585</v>
+        <v>319494.8838104589</v>
       </c>
       <c r="D6" t="n">
-        <v>350181.344677147</v>
+        <v>350181.3446771468</v>
       </c>
       <c r="E6" t="n">
-        <v>206569.4053118065</v>
+        <v>206519.075762405</v>
       </c>
       <c r="F6" t="n">
-        <v>422298.3215923199</v>
+        <v>422247.9920429186</v>
       </c>
       <c r="G6" t="n">
-        <v>422298.32159232</v>
+        <v>422247.9920429187</v>
       </c>
       <c r="H6" t="n">
-        <v>422298.3215923202</v>
+        <v>422247.9920429185</v>
       </c>
       <c r="I6" t="n">
-        <v>422298.3215923198</v>
+        <v>422247.9920429185</v>
       </c>
       <c r="J6" t="n">
-        <v>286956.2921231661</v>
+        <v>286905.9625737647</v>
       </c>
       <c r="K6" t="n">
-        <v>397852.5473312104</v>
+        <v>397802.2177818093</v>
       </c>
       <c r="L6" t="n">
-        <v>422298.3215923196</v>
+        <v>422247.9920429185</v>
       </c>
       <c r="M6" t="n">
-        <v>261939.8710916372</v>
+        <v>261889.5415422355</v>
       </c>
       <c r="N6" t="n">
-        <v>422298.3215923196</v>
+        <v>422247.9920429183</v>
       </c>
       <c r="O6" t="n">
-        <v>405092.9011070637</v>
+        <v>404912.3205144147</v>
       </c>
       <c r="P6" t="n">
-        <v>405092.9011070637</v>
+        <v>404912.3205144144</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625166</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625166</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627591</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625166</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>253.0481148261991</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>383.7354122953388</v>
       </c>
     </row>
     <row r="3">
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>157.0384723532524</v>
+        <v>103.9543291284521</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031792</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27587,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>234.8166049491464</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>128.6937268380705</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.262077853083241</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633708</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633805</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="41">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.45271698861445</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037739</v>
+        <v>409.8240831349349</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037739</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037739</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L3" t="n">
-        <v>56.44583597939591</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037739</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.5877356131031</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037739</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
+        <v>500.9700927793177</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35260,22 +35260,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35588,7 +35588,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35728,13 +35728,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
@@ -35971,7 +35971,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36378,7 +36378,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K31" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K34" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.788905695572</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570327</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37408,7 +37408,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K40" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>435.3350991233255</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
